--- a/src/test/resources/TestData/OpenCartData.xlsx
+++ b/src/test/resources/TestData/OpenCartData.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\eclipse-workspace\OpenCartFramework\src\test\resources\TestData\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{40383FE6-8293-4329-9E10-9A2541AEE830}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0D53BE1A-AE7A-4080-87C1-E5C8A90311CB}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="390" yWindow="390" windowWidth="21600" windowHeight="11385" activeTab="1" xr2:uid="{651A9C18-7E9A-45C6-9B2F-9F966BDB02B0}"/>
   </bookViews>
@@ -555,7 +555,7 @@
   <dimension ref="A1:B4"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C2" sqref="C2"/>
+      <selection activeCell="C1" sqref="C1:G1048576"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
